--- a/biology/Médecine/Filtration_glomérulaire/Filtration_glomérulaire.xlsx
+++ b/biology/Médecine/Filtration_glomérulaire/Filtration_glomérulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Filtration_glom%C3%A9rulaire</t>
+          <t>Filtration_glomérulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La filtration glomérulaire est la filtration du sang par le glomérule du rein, menant à la formation d'urine primitive.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Filtration_glom%C3%A9rulaire</t>
+          <t>Filtration_glomérulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle s'effectue au travers de la paroi glomérulo-capillaire composée de trois couches : l'endothélium vasculaire, la membrane basale et l'épithélium urinaire.
 Cette paroi possède une forte perméabilité, mais elle est sélective :
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Filtration_glom%C3%A9rulaire</t>
+          <t>Filtration_glomérulaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Évaluation du débit de filtration glomérulaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'évaluation du débit de filtration glomérulaire (eDFG) peut se faire par plusieurs formules :
 la formule de Cockcroft &amp; Gault (C-G),
@@ -560,7 +576,7 @@
 et
 la formule CKD-EPI (pour l'anglais : Chronic Kidney Disease Epidemiology Collaboration).
 Cockcroft sous-estime les DFG,
-la MDRD sous-estime légèrement les DFG supérieurs à 60 ml/min[1] et
+la MDRD sous-estime légèrement les DFG supérieurs à 60 ml/min et
 CKD-EPI, plus récente (2009), mais plus complexe, permet une estimation plus exacte.
 Cependant, C-G et MDRD permettent d'alerter facilement, pour les cas d'insuffisance rénale les plus sévères.
 </t>
